--- a/Mifos Automation Excels/Loan Product/2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>productname</t>
   </si>
@@ -158,7 +158,10 @@
     <t>addcharges</t>
   </si>
   <si>
-    <t>2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT</t>
+    <t>2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURS-1st</t>
+  </si>
+  <si>
+    <t>2mm6</t>
   </si>
 </sst>
 </file>
@@ -564,8 +567,8 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2587</v>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
